--- a/biology/Médecine/Tout_s'est_bien_passé/Tout_s'est_bien_passé.xlsx
+++ b/biology/Médecine/Tout_s'est_bien_passé/Tout_s'est_bien_passé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tout_s%27est_bien_pass%C3%A9</t>
+          <t>Tout_s'est_bien_passé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout s'est bien passé est un film français écrit et réalisé par François Ozon, sorti en 2021. Il s'agit de l'adaptation du roman du même nom d'Emmanuèle Bernheim, narrant sa propre histoire avec son père qui lui avait demandé de l'aider à mourir.
 La presse (Télérama) a toutefois également relevé de fortes similitudes avec un récit de Philippe Pichon, Un Pays vers le ciel, paru chez Dualpha en 2006, c'est-à-dire antérieurement au récit d'Emmanuelle Bernheim. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tout_s%27est_bien_pass%C3%A9</t>
+          <t>Tout_s'est_bien_passé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuèle est une romancière épanouie et accomplie, aussi bien dans sa vie privée que professionnelle. Un jour, elle est appelée en urgence : son père André, âgé de 85 ans, vient d'être hospitalisé après un accident vasculaire cérébral. Quand il se réveille, diminué et dépendant, cet homme curieux de tout et aimant passionnément la vie, demande à sa fille de l'aider à mourir. Malgré leurs différends passés, le père s'adresse à elle plutôt qu'à son autre fille, Pascale, qui le vit plutôt mal.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tout_s%27est_bien_pass%C3%A9</t>
+          <t>Tout_s'est_bien_passé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
 Titre original : Tout s'est bien passé
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tout_s%27est_bien_pass%C3%A9</t>
+          <t>Tout_s'est_bien_passé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sophie Marceau : Emmanuèle, la fille cadette d'André
 André Dussollier : André
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tout_s%27est_bien_pass%C3%A9</t>
+          <t>Tout_s'est_bien_passé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,10 +657,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2020, on annonce que le réalisateur-scénariste François Ozon va adapter le roman Tout s'est bien passé d'Emmanuèle Bernheim, avec Sophie Marceau, André Dussollier et Géraldine Pailhas dans les rôles principaux, sous la production de Mandarin[1],[2].
-Le tournage devait commencer le 13 mars 2020 et est annulé à cause du confinement en raison de la pandémie de Covid-19[3]. Il commence finalement en juillet et août, en région parisienne[4],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2020, on annonce que le réalisateur-scénariste François Ozon va adapter le roman Tout s'est bien passé d'Emmanuèle Bernheim, avec Sophie Marceau, André Dussollier et Géraldine Pailhas dans les rôles principaux, sous la production de Mandarin,.
+Le tournage devait commencer le 13 mars 2020 et est annulé à cause du confinement en raison de la pandémie de Covid-19. Il commence finalement en juillet et août, en région parisienne,.
 </t>
         </is>
       </c>
@@ -653,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tout_s%27est_bien_pass%C3%A9</t>
+          <t>Tout_s'est_bien_passé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,12 +691,12 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le film est sélectionné et projeté en « compétition officielle », le 7 juillet 2021, au Festival de Cannes. Il sort le 22 septembre 2021 en Belgique, France et Suisse romande[6].
-Accueil critique
-En France, le site Allociné recense une moyenne des critiques presse de 3,4/5[7].
-Box-office</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est sélectionné et projeté en « compétition officielle », le 7 juillet 2021, au Festival de Cannes. Il sort le 22 septembre 2021 en Belgique, France et Suisse romande.
+</t>
         </is>
       </c>
     </row>
@@ -686,7 +706,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tout_s%27est_bien_pass%C3%A9</t>
+          <t>Tout_s'est_bien_passé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -701,13 +721,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné recense une moyenne des critiques presse de 3,4/5.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tout_s'est_bien_passé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tout_s%27est_bien_pass%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sélection
-Festival de Cannes 2021 : en « compétition officielle »</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2021 : en « compétition officielle »</t>
         </is>
       </c>
     </row>
